--- a/3_Organisation/Testing_Sheets.xlsx
+++ b/3_Organisation/Testing_Sheets.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F75F26-E2E1-473F-9DA1-52C720BFBC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B651C6C-F8D1-474F-96B0-D7E1DA1EEECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectives" sheetId="8" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <sheet name="Scrutt setup" sheetId="6" r:id="rId11"/>
     <sheet name="vérif vénère" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="348">
   <si>
     <t>Pince à rivet</t>
   </si>
@@ -237,18 +229,6 @@
     <t>Liquides</t>
   </si>
   <si>
-    <t xml:space="preserve">Séance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu </t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
     <t>Matériel Piste</t>
   </si>
   <si>
@@ -481,54 +461,6 @@
   </si>
   <si>
     <t xml:space="preserve">Objectifs : </t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-      </rPr>
-      <t>ère</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> vérif</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-      </rPr>
-      <t>ème</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> vérif</t>
-    </r>
   </si>
   <si>
     <t>Niveaux des fluides</t>
@@ -1218,12 +1150,21 @@
   <si>
     <t>Lap 10</t>
   </si>
+  <si>
+    <t xml:space="preserve">1er </t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>1er</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,13 +1214,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Raleway"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
@@ -1315,13 +1249,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Corbel"/>
       <family val="2"/>
@@ -1419,18 +1346,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="48">
@@ -2024,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2033,10 +1954,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2055,73 +1972,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2130,16 +2047,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2148,10 +2065,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2163,13 +2080,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2178,15 +2095,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2216,10 +2133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2234,14 +2151,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
@@ -2253,21 +2170,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2284,56 +2240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2366,10 +2280,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2378,88 +2349,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2489,62 +2430,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5051,8 +4962,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2499735" y="3038108"/>
-          <a:ext cx="498933" cy="152996"/>
+          <a:off x="2477233" y="3003451"/>
+          <a:ext cx="484020" cy="150047"/>
           <a:chOff x="2420888" y="3711724"/>
           <a:chExt cx="504056" cy="145192"/>
         </a:xfrm>
@@ -5708,8 +5619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3997977" y="3033463"/>
-          <a:ext cx="492711" cy="152996"/>
+          <a:off x="3985962" y="2998806"/>
+          <a:ext cx="475280" cy="150301"/>
           <a:chOff x="3924253" y="3707079"/>
           <a:chExt cx="504056" cy="145192"/>
         </a:xfrm>
@@ -6589,8 +6500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660275" y="2580304"/>
-          <a:ext cx="1310351" cy="1054935"/>
+          <a:off x="4636163" y="2551289"/>
+          <a:ext cx="1325373" cy="1038262"/>
           <a:chOff x="4597896" y="3269528"/>
           <a:chExt cx="1312912" cy="1008111"/>
         </a:xfrm>
@@ -6708,8 +6619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="981424" y="6646756"/>
-          <a:ext cx="1410515" cy="999492"/>
+          <a:off x="950871" y="6558976"/>
+          <a:ext cx="1416788" cy="984751"/>
           <a:chOff x="908720" y="7164290"/>
           <a:chExt cx="1404372" cy="960471"/>
         </a:xfrm>
@@ -6827,8 +6738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2421884" y="7648363"/>
-          <a:ext cx="504056" cy="152996"/>
+          <a:off x="2397858" y="7545842"/>
+          <a:ext cx="517518" cy="150302"/>
           <a:chOff x="2343037" y="8126876"/>
           <a:chExt cx="504056" cy="145192"/>
         </a:xfrm>
@@ -7484,8 +7395,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4184332" y="7648363"/>
-          <a:ext cx="492711" cy="152996"/>
+          <a:off x="4177143" y="7545842"/>
+          <a:ext cx="475280" cy="150302"/>
           <a:chOff x="4110608" y="8126876"/>
           <a:chExt cx="504056" cy="145192"/>
         </a:xfrm>
@@ -8141,8 +8052,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660275" y="6646756"/>
-          <a:ext cx="1349163" cy="999492"/>
+          <a:off x="4636163" y="6558976"/>
+          <a:ext cx="1365709" cy="984751"/>
           <a:chOff x="4597896" y="7164290"/>
           <a:chExt cx="1351724" cy="960471"/>
         </a:xfrm>
@@ -9006,8 +8917,8 @@
       <xdr:rowOff>4355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1899330</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>86671</xdr:rowOff>
     </xdr:to>
@@ -9024,8 +8935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4768050" y="2290355"/>
-          <a:ext cx="146850" cy="272816"/>
+          <a:off x="5497166" y="2085114"/>
+          <a:ext cx="1227030" cy="263745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9150,8 +9061,8 @@
       <xdr:rowOff>21777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2007054</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>104093</xdr:rowOff>
     </xdr:to>
@@ -9168,8 +9079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4768050" y="6879777"/>
-          <a:ext cx="146850" cy="272816"/>
+          <a:off x="5497166" y="6456822"/>
+          <a:ext cx="1334754" cy="263744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9437,8 +9348,8 @@
       <xdr:rowOff>171708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1950357</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>74730</xdr:rowOff>
     </xdr:to>
@@ -9455,8 +9366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4690858" y="3791208"/>
-          <a:ext cx="224042" cy="284022"/>
+          <a:off x="5419974" y="3522467"/>
+          <a:ext cx="1355249" cy="265879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9580,8 +9491,8 @@
       <xdr:rowOff>156464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2029732</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>59486</xdr:rowOff>
     </xdr:to>
@@ -9598,8 +9509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4700234" y="8347964"/>
-          <a:ext cx="214666" cy="284022"/>
+          <a:off x="5429350" y="7861509"/>
+          <a:ext cx="1425248" cy="265879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11763,13 +11674,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>475131</xdr:colOff>
+      <xdr:colOff>475132</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>153778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1632858</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>52682</xdr:rowOff>
     </xdr:to>
@@ -11786,8 +11697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3751731" y="4154278"/>
-          <a:ext cx="1163169" cy="470404"/>
+          <a:off x="4761382" y="3867394"/>
+          <a:ext cx="1696342" cy="443190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11917,8 +11828,8 @@
       <xdr:rowOff>82060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1474107</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>160257</xdr:rowOff>
     </xdr:to>
@@ -11935,8 +11846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3769660" y="6368560"/>
-          <a:ext cx="1145240" cy="459197"/>
+          <a:off x="4779310" y="5972819"/>
+          <a:ext cx="1519663" cy="441054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12896,171 +12807,171 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="79"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="78" t="s">
-        <v>284</v>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="77"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
+        <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="78" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="76" t="s">
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="77" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="77" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -13080,417 +12991,436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450BED25-8C34-4248-9D1D-CD419F265B1F}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="31" customWidth="1"/>
-    <col min="3" max="5" width="12.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="16.1796875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="29" customWidth="1"/>
+    <col min="3" max="5" width="12.54296875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.7" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A3" s="133" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="150"/>
+      <c r="C3" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="133"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="151"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="133"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="137" t="s">
+      <c r="B6" s="157"/>
+      <c r="C6" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="137"/>
+      <c r="E6" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="137"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="B7" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="138"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.7" customHeight="1" thickBot="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="32" t="s">
+      <c r="C7" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="C8" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A6" s="142" t="s">
+      <c r="B10" s="157"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144" t="s">
+      <c r="B11" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="148"/>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="142"/>
+      <c r="E13" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="142"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="143" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="144"/>
+      <c r="E14" s="143" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="144"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="142"/>
+      <c r="E15" s="141" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="142"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="131"/>
+      <c r="E16" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="131"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="135"/>
+      <c r="E17" s="134" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="144" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="145"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="71" t="s">
+      <c r="F17" s="135"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D19" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A9" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A10" s="142" t="s">
+      <c r="E19" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="136" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="139"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131" t="s">
+      <c r="D21" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="140"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="128" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="140"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="140"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="128" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="140"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="128" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="129"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="132"/>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="148" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="149"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="150" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="150" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="151"/>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="148" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" s="149"/>
-    </row>
-    <row r="16" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="155"/>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A17" s="137" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="156" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="156" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="157"/>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="144" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="159"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A21" s="137" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A22" s="152" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="160"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="152" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A23" s="152" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="160"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="152" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="160"/>
-      <c r="F23" s="54"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.7" customHeight="1" thickBot="1">
-      <c r="A24" s="152" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.7" customHeight="1" thickBot="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A26" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.75">
-      <c r="A29" s="61"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="63"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="65"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="63"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="65"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="63"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="65"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="59"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="63"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="63"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
@@ -13504,25 +13434,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13538,389 +13449,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E82DA-A1D2-4027-B9CD-B819995ED6A7}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="31" customWidth="1"/>
-    <col min="3" max="5" width="12.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="16.1796875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="29" customWidth="1"/>
+    <col min="3" max="5" width="12.54296875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A3" s="133" t="s">
+    <row r="1" spans="1:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="150"/>
+      <c r="C3" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="133"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="151"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="133"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="137" t="s">
+      <c r="B6" s="157"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="137"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="B7" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="138"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.7" customHeight="1" thickBot="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="32" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="169"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="C8" s="170"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A6" s="142" t="s">
+      <c r="B10" s="157"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="C11" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="163"/>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="D11" s="166"/>
+      <c r="E11" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="F11" s="166"/>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="166"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A10" s="142" t="s">
+      <c r="C12" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="D12" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="C13" s="141"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C14" s="143" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="170" t="s">
+      <c r="D14" s="144"/>
+      <c r="E14" s="143" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="144"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="F11" s="171"/>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C16" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="131"/>
+      <c r="E16" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="131"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="135"/>
+      <c r="E17" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="135"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="D18" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="150" t="s">
+      <c r="D19" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F14" s="151"/>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38" t="s">
+      <c r="E19" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
-    </row>
-    <row r="16" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="139"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="155"/>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A17" s="137" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="140"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="172">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="172">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="157"/>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="E22" s="140"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="B23" s="140"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="39" t="s">
+      <c r="E23" s="140"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="144" t="s">
+      <c r="B24" s="129"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="159"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A21" s="137" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A22" s="152" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="160"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="152" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="152" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="160"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="152" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="160"/>
-      <c r="F23" s="54"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A24" s="152" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.7" customHeight="1" thickBot="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A26" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.7" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="63"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="65"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="63"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="65"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="63"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="65"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="59"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="163"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="59"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="63"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="63"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="B26:F27"/>
     <mergeCell ref="C20:D20"/>
@@ -13930,31 +13866,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13970,835 +13881,851 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E98213A-2211-4DD3-A174-D22AC97E3160}">
   <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="110" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="110" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="27" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="19" customWidth="1"/>
-    <col min="7" max="10" width="8.85546875" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="19"/>
+    <col min="1" max="1" width="35.36328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="E6" s="176" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5">
-      <c r="A3" s="17" t="s">
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="E7" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18" t="s">
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="E9" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="E12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="E13" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="E15" s="176" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="E16" s="176" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="E17" s="176" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="176" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="E20" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="176" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="183" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="E24" s="176" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="E25" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="E26" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="176" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="E30" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="E31" s="176" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="178" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="E6" s="179" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="E7" s="179" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="E8" s="179" t="s">
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="E32" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="183" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="E35" s="176" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="E36" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="E37" s="176" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="E38" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="E39" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E41" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="177" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="178"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="180" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="180"/>
+      <c r="D48" s="180"/>
+      <c r="E48" s="180"/>
+      <c r="G48" s="181" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="181"/>
+      <c r="I48" s="181"/>
+      <c r="J48" s="181"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="E9" s="179" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="E12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="E13" s="179" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="E14" s="179" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="E15" s="179" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="E16" s="179" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="E17" s="179" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="E18" s="179" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="E20" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="E21" s="179" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="180" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="E24" s="179" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="E25" s="179" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="E26" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="E27" s="179" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="E30" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="E31" s="179" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="E32" s="179" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="180" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="E35" s="179" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="E36" s="181" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="E37" s="179" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="E38" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="E39" s="181" t="s">
-        <v>198</v>
-      </c>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="E41" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="182"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="184" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="184"/>
-      <c r="G48" s="185" t="s">
-        <v>202</v>
-      </c>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="25" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="25" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="25" t="s">
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="25" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
@@ -14811,24 +14738,11 @@
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:J48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -14845,650 +14759,624 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:P46"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.6" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="8"/>
-      <c r="G2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="H3" s="7" t="s">
+    <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" customHeight="1">
-      <c r="A4" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" customHeight="1">
-      <c r="A5" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="H6" s="7" t="s">
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="H7" s="7" t="s">
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:16">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25">
-      <c r="B23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="7" t="s">
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="B31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25">
-      <c r="B38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25">
-      <c r="A39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="89"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="89"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" s="89"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>137</v>
+      <c r="F46" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="89"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
+  <mergeCells count="4">
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15505,561 +15393,552 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="4.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.453125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B9" s="12"/>
+      <c r="C9" s="91"/>
+      <c r="E9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="E21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="E24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="E25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="E30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14" t="s">
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
+      <c r="C39" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="14" t="s">
+      <c r="F39" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="C40" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="F40" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C42" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="14" t="s">
+      <c r="F42" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="C43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="14" t="s">
+      <c r="F43" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="E44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="14"/>
-      <c r="C9" s="95"/>
-      <c r="E9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.399999999999999" customHeight="1">
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.399999999999999" customHeight="1">
-      <c r="A11" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.399999999999999" customHeight="1">
-      <c r="B12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30">
-      <c r="B13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.399999999999999" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30">
-      <c r="B16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="D20" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="E21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="B23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="E24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="A25" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="E25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B27" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="B29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="A30" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="E30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B31" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B33" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.399999999999999" customHeight="1">
-      <c r="B35" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1"/>
-    <row r="46" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A46" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1"/>
-    <row r="50" spans="1:3">
-      <c r="A50" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
+      <c r="F44" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A21:C21"/>
@@ -16071,8 +15950,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16091,73 +15968,73 @@
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="112" zoomScaleNormal="115" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="112" zoomScaleNormal="115" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="79"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="78"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="80"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="80"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="77"/>
-      <c r="C14" s="80"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="80"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="77"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="77"/>
-    </row>
-    <row r="48" spans="1:1">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="77"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="76"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="78"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="78"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="75"/>
+      <c r="C14" s="78"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="78"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="75"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="75"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -16181,420 +16058,525 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="110" zoomScaleNormal="115" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="115" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="79"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="78"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.7" customHeight="1" thickBot="1"/>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A6" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="111" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="113"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="105"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="110"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="100"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="110"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="100"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="105"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="110"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="100"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="105"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="110"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="105"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="110"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="100"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="101"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="105"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="110"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="100"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="105"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="110"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="100"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="105"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="106"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="110"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="100"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="105"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="110"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="100"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="101"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="105"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="110"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="100"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="101"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="105"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="110"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="100"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="105"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="110"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="100"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="101"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="105"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="106"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="110"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A45" s="106"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="110"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="101"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="105"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="106"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="110"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A48" s="96"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="100"/>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="77"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="76"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="96"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="102"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="106"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="111"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="96"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="106"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="111"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="96"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="106"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="111"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="96"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="106"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="111"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="96"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="111"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="96"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="106"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="111"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="96"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="106"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="107"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="111"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="96"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="106"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="107"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="111"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="92"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="96"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="106"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="111"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="96"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="106"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="107"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="111"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="92"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="96"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="106"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="107"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="111"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="92"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="96"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="106"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="111"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="92"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="96"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="106"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="106"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="92"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="96"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="102"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="107"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:G13"/>
@@ -16619,111 +16601,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16744,504 +16621,504 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="3" max="7" width="5.1796875" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
-      <c r="A1" s="79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="78"/>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="76"/>
       <c r="I3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.7" customHeight="1">
-      <c r="D8" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="L8" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
       <c r="D9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+        <v>291</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
+        <v>289</v>
+      </c>
+      <c r="L9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D11" s="76"/>
+      <c r="I11" t="s">
+        <v>289</v>
+      </c>
+      <c r="L11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>295</v>
       </c>
-      <c r="L9" t="s">
+      <c r="F15" s="76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D17" s="80" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I17" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D20" s="76"/>
+      <c r="I20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" t="s">
+        <v>290</v>
+      </c>
+      <c r="I22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>295</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D26" s="80" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="D11" s="78"/>
-      <c r="I11" t="s">
+      <c r="I26" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" t="s">
+        <v>291</v>
+      </c>
+      <c r="I27" t="s">
+        <v>289</v>
+      </c>
+      <c r="L27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" t="s">
+        <v>290</v>
+      </c>
+      <c r="I28" t="s">
+        <v>289</v>
+      </c>
+      <c r="L28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D29" s="76"/>
+      <c r="I29" t="s">
+        <v>289</v>
+      </c>
+      <c r="L29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" t="s">
+        <v>291</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>295</v>
       </c>
-      <c r="L11" t="s">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D35" s="80" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="I35" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" t="s">
+        <v>291</v>
+      </c>
+      <c r="I36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D38" s="76"/>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="75"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>295</v>
       </c>
-      <c r="L12" t="s">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D44" s="80" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" t="s">
-        <v>296</v>
-      </c>
-      <c r="I13" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" t="s">
-        <v>297</v>
-      </c>
-      <c r="I18" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" t="s">
-        <v>296</v>
-      </c>
-      <c r="I19" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="D20" s="78"/>
-      <c r="I20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" t="s">
-        <v>297</v>
-      </c>
-      <c r="I21" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="B22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" t="s">
-        <v>296</v>
-      </c>
-      <c r="I22" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="D26" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I26" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="L26" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" t="s">
-        <v>297</v>
-      </c>
-      <c r="I27" t="s">
-        <v>295</v>
-      </c>
-      <c r="L27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="B28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" t="s">
-        <v>296</v>
-      </c>
-      <c r="I28" t="s">
-        <v>295</v>
-      </c>
-      <c r="L28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="D29" s="78"/>
-      <c r="I29" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" t="s">
-        <v>297</v>
-      </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" t="s">
-        <v>295</v>
-      </c>
-      <c r="L30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="B31" t="s">
-        <v>296</v>
-      </c>
-      <c r="F31" t="s">
-        <v>296</v>
-      </c>
-      <c r="I31" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="D35" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I35" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="L35" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" t="s">
-        <v>297</v>
-      </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" t="s">
-        <v>297</v>
-      </c>
-      <c r="I36" t="s">
-        <v>295</v>
-      </c>
-      <c r="L36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" t="s">
-        <v>296</v>
-      </c>
-      <c r="F37" t="s">
-        <v>296</v>
-      </c>
-      <c r="I37" t="s">
-        <v>295</v>
-      </c>
-      <c r="L37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="D38" s="78"/>
-      <c r="I38" t="s">
-        <v>295</v>
-      </c>
-      <c r="L38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" t="s">
-        <v>297</v>
-      </c>
-      <c r="I39" t="s">
-        <v>295</v>
-      </c>
-      <c r="L39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" t="s">
-        <v>296</v>
-      </c>
-      <c r="F40" t="s">
-        <v>296</v>
-      </c>
-      <c r="I40" t="s">
-        <v>295</v>
-      </c>
-      <c r="L40" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="77"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="D44" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I44" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="L44" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
+      <c r="I44" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L44" s="76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
       <c r="D45" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
+        <v>291</v>
+      </c>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I45" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F46" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I46" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="D47" s="78"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D47" s="76"/>
       <c r="I47" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
       <c r="D48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
+        <v>291</v>
+      </c>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
       <c r="H48" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I48" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I49" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -17264,214 +17141,214 @@
   </sheetPr>
   <dimension ref="A3:M42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>330</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="H4" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="89" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="88">
+    <row r="3" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="86">
         <f>SUM(I4:M13)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="H5" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="H6" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="H7" s="81" t="s">
-        <v>344</v>
-      </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="114" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8" s="88">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="H5" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="H6" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="H7" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="86">
         <f xml:space="preserve"> MIN(I4:M10)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="114" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="88"/>
-      <c r="H9" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="114" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="H10" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="H11" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="H12" s="81" t="s">
-        <v>349</v>
-      </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="H13" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-    </row>
-    <row r="36" spans="1:1" ht="18.75">
-      <c r="A36" s="90" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="F8" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="112" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="112"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="86"/>
+      <c r="H9" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="112" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="H10" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H11" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+    </row>
+    <row r="36" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -17500,171 +17377,171 @@
   </sheetPr>
   <dimension ref="A4:G22"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="81" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="81" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="79" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="81" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="81" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="81" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="113"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="113"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="114" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="115" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="115"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" s="115" t="s">
-        <v>337</v>
-      </c>
-      <c r="E19" s="115"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="186" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="186"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17686,220 +17563,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508B71BA-5ABF-487F-86D6-A6F9446E18BC}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="108" zoomScaleNormal="115" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="108" zoomScaleNormal="115" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="78"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:7">
-      <c r="A6" s="119" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="121" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="77" t="s">
         <v>307</v>
       </c>
-      <c r="G6" s="126"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="120"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="87" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="D3" s="76"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="128"/>
-    </row>
-    <row r="8" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116"/>
-    </row>
-    <row r="9" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-    </row>
-    <row r="11" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-    </row>
-    <row r="12" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-    </row>
-    <row r="13" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-    </row>
-    <row r="14" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-    </row>
-    <row r="16" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-    </row>
-    <row r="17" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-    </row>
-    <row r="18" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
-    </row>
-    <row r="20" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
-    </row>
-    <row r="21" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
-    </row>
-    <row r="22" spans="1:7" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118"/>
-    </row>
-    <row r="23" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="24" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="25" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="26" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="27" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="28" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="29" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="30" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="31" spans="1:7" ht="39.6" customHeight="1"/>
-    <row r="32" spans="1:7" ht="39.6" customHeight="1"/>
+      <c r="B6" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="120" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="123"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="117"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="125"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="115"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="83"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="115"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="83"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="115"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="83"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="115"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="83"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="115"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="83"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="115"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="83"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="115"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="83"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="115"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="83"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="115"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="83"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="115"/>
+    </row>
+    <row r="18" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="83"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="115"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="83"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="115"/>
+    </row>
+    <row r="20" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="83"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="115"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="83"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="115"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="82"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
+    </row>
+    <row r="23" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F21:G21"/>
@@ -17911,6 +17779,15 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
